--- a/Git bash commands.xlsx
+++ b/Git bash commands.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\inASUS_TUF\Docs\Code\Git for me\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\inASUS_TUF\Docs\Code\Git_Local_Repositories\PersonalStuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BDBAC8-CE39-4188-8246-B0AC8835C39D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54346A4-C6C4-4BF5-BE73-17DDC2B45792}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{1DBC368A-6EAB-40F4-B912-9A25F29004D2}"/>
   </bookViews>
@@ -495,9 +495,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -505,6 +502,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -845,23 +845,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="8"/>
+      <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -974,10 +974,10 @@
       <c r="B16" s="2"/>
     </row>
     <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="7"/>
       <c r="E18" s="5" t="s">
         <v>27</v>
       </c>

--- a/Git bash commands.xlsx
+++ b/Git bash commands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\inASUS_TUF\Docs\Code\Git_Local_Repositories\PersonalStuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\inASUS_TUF\Docs\Code\Git_Local_Repositories\PersonalStuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54346A4-C6C4-4BF5-BE73-17DDC2B45792}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2C8EF5-B94E-4193-B878-01AB25422A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{1DBC368A-6EAB-40F4-B912-9A25F29004D2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1DBC368A-6EAB-40F4-B912-9A25F29004D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -495,6 +495,9 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -502,9 +505,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -531,7 +531,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -833,7 +833,7 @@
       <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="35.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="35.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="69.109375" style="1" customWidth="1"/>
@@ -845,23 +845,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="9"/>
+      <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -974,10 +974,10 @@
       <c r="B16" s="2"/>
     </row>
     <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="8"/>
       <c r="E18" s="5" t="s">
         <v>27</v>
       </c>

--- a/Git bash commands.xlsx
+++ b/Git bash commands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\inASUS_TUF\Docs\Code\Git_Local_Repositories\PersonalStuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\1. PCs\1. inASUS_TUF\1. Documents\Code\Git for me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2C8EF5-B94E-4193-B878-01AB25422A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0889FE70-60C9-432B-AA13-2538232BE613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1DBC368A-6EAB-40F4-B912-9A25F29004D2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1DBC368A-6EAB-40F4-B912-9A25F29004D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Files</t>
   </si>
@@ -385,6 +385,18 @@
   </si>
   <si>
     <t>solve fatal: refusing to merge unrelated histories</t>
+  </si>
+  <si>
+    <t>show the differences between commits</t>
+  </si>
+  <si>
+    <t>git diff &lt;COMMIT&gt; &lt;ANOTHER_COMMIT&gt;</t>
+  </si>
+  <si>
+    <t>git checkout</t>
+  </si>
+  <si>
+    <t>show current branch</t>
   </si>
 </sst>
 </file>
@@ -480,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -495,7 +507,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -506,6 +518,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1158,11 +1173,11 @@
       <c r="C32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>65</v>
+      <c r="E32" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1173,10 +1188,10 @@
         <v>104</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1186,11 +1201,11 @@
       <c r="C34" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>114</v>
+      <c r="E34" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1201,10 +1216,10 @@
         <v>108</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1214,11 +1229,11 @@
       <c r="C36" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>71</v>
+      <c r="E36" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1229,10 +1244,10 @@
         <v>109</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1243,10 +1258,10 @@
         <v>105</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1257,10 +1272,10 @@
         <v>106</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1271,10 +1286,10 @@
         <v>110</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1284,6 +1299,12 @@
       <c r="C41" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="E41" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
@@ -1291,6 +1312,12 @@
       </c>
       <c r="C42" s="1" t="s">
         <v>111</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Git bash commands.xlsx
+++ b/Git bash commands.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\1. PCs\1. inASUS_TUF\1. Documents\Code\Git for me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0889FE70-60C9-432B-AA13-2538232BE613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A9B8A0-AA16-4459-B3AD-116D17B9FF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1DBC368A-6EAB-40F4-B912-9A25F29004D2}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>Files</t>
   </si>
   <si>
-    <t>vi &lt;NAME&gt;</t>
-  </si>
-  <si>
     <t>create a file</t>
   </si>
   <si>
@@ -397,6 +394,21 @@
   </si>
   <si>
     <t>show current branch</t>
+  </si>
+  <si>
+    <t>&lt;text editor&gt; &lt;NAME&gt;</t>
+  </si>
+  <si>
+    <t>git config --global core.editor "&lt;any text editor&gt;"</t>
+  </si>
+  <si>
+    <t>configure an specific text editor for Git</t>
+  </si>
+  <si>
+    <t>git log --graph</t>
+  </si>
+  <si>
+    <t>show each log referent to a branch</t>
   </si>
 </sst>
 </file>
@@ -501,6 +513,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -518,9 +533,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -842,9 +854,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1CE723-C530-4E95-81B8-4C47CAD0C99C}">
-  <dimension ref="B2:F42"/>
+  <dimension ref="B2:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
@@ -860,408 +872,408 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="E4" s="7" t="s">
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="E4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
     </row>
     <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="E18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="5"/>
+      <c r="B18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="E18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="E22" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="1" t="s">
+    </row>
+    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="1" t="s">
+    </row>
+    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="E25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>122</v>
+        <v>100</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>65</v>
+        <v>102</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>69</v>
+        <v>116</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1269,60 +1281,74 @@
         <v>90</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E42" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="E4:F4"/>
